--- a/Matlab/DataExamples/ejemploBBDDLabBindi/Tanda1_Videos_Labels.xlsx
+++ b/Matlab/DataExamples/ejemploBBDDLabBindi/Tanda1_Videos_Labels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\equipo\Desktop\REPO\BINDI_Physiological_Code_PC\Matlab\DataExamples\ejemploBBDDLabBindi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jocol\Desktop\REPO\BINDI_Physiological_Code_PC\Matlab\DataExamples\ejemploBBDDLabBindi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87458E11-99D8-4B55-A116-D97D64406A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB3AA21-1774-412B-AE9E-D0C6C19E167C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A43145D6-0C15-4635-B82C-4B3E736417B1}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{A43145D6-0C15-4635-B82C-4B3E736417B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -688,12 +688,15 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="35.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +735,7 @@
       </c>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -771,7 +774,7 @@
       </c>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -810,7 +813,7 @@
       </c>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -849,7 +852,7 @@
       </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -888,7 +891,7 @@
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -927,7 +930,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -966,7 +969,7 @@
       </c>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -1005,7 +1008,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
@@ -1044,7 +1047,7 @@
       </c>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1083,7 +1086,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
@@ -1122,7 +1125,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
@@ -1161,7 +1164,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>54</v>
       </c>
@@ -1200,7 +1203,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>56</v>
       </c>
@@ -1239,7 +1242,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
@@ -1278,7 +1281,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>63</v>
       </c>
@@ -1317,7 +1320,7 @@
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
